--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_24_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_24_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757769.4713629959</v>
+        <v>686860.4451921759</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10333101.14322675</v>
+        <v>10326580.93019923</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7415297.050778591</v>
+        <v>7417528.253554629</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="E2" t="n">
-        <v>92.66494928910245</v>
+        <v>44.63627908943538</v>
       </c>
       <c r="F2" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>81.61928733384138</v>
+        <v>76.54447849706852</v>
       </c>
     </row>
     <row r="3">
@@ -782,25 +782,25 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>20.61298734065886</v>
       </c>
       <c r="R3" t="n">
-        <v>84.56947841277967</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="T3" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="U3" t="n">
-        <v>89.71475821016418</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>46.80738931955914</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.68779966354352</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>57.93735621588656</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>24.58285772776253</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.61164031771685</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>83.13719072031581</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>93.68779966354352</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>93.68779966354352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>77.69341728227867</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.74883103803269</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.07523166978292</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.43936465513102</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>93.68779966354352</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>93.68779966354352</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3.625377488803558</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.49336029176023</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>138.1915320374689</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>132.5004355798272</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.382090555273692</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R8" t="n">
-        <v>88.53474702921046</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>138.1915320374689</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>126.45409514293</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.1915320374689</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>138.1915320374689</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>127.4298779958539</v>
       </c>
       <c r="X9" t="n">
-        <v>121.7191014186026</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>138.1915320374689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.15365107438001</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U11" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
-        <v>312.6458728713231</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>38.78116410270087</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>75.93464977929214</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>36.2994675790488</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>69.22116079660097</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>29.8511617389823</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.15430933923916</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>246.4412936084454</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.4783949150402</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
         <v>208.0722578696038</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8387505498755</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>49.70461511839566</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>36.29946757904879</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>192.7632183107638</v>
@@ -1748,13 +1748,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>131.3328798460278</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5.795970478954122</v>
       </c>
       <c r="G16" t="n">
-        <v>65.63512030002026</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.15430933923915</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>40.61788464536838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.5928767490648</v>
       </c>
     </row>
     <row r="18">
@@ -1925,13 +1925,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>77.11597950297698</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U18" t="n">
-        <v>165.3461923380926</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>102.1676572449671</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.4412936084449</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>142.5636667373966</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>411.8707348436268</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>235.3455885274601</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>88.37993586869879</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T21" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8205739680685</v>
+        <v>128.4220306673752</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>79.19447250981707</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>71.47349431240914</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>44.75951530680794</v>
+        <v>185.2156806511717</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.0138334144179</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>161.7494508087912</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>22.20860739040505</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>173.5578851713674</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.01188539214117</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>126.6623413033684</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>302.1209133873607</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.152727013336042</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>12.40418031676368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.3818512790432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>83.13723023285972</v>
+        <v>363.8122868837124</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>238.7407932452442</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>298.4273483549584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3328,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>284.8316859696388</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3347,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>106.4735778903241</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>19.52918235370612</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>87.04898341497842</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.152727013336493</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>87.93270968653144</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>195.3024407805243</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>141.1762660121942</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>394.1100830796579</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>254.1385731803659</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.3678408619216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>94.48315401756061</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>26.28051149992551</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>113.6610168227337</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>95.75559537540511</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194.6151136988908</v>
+        <v>228.8602589407301</v>
       </c>
       <c r="C2" t="n">
-        <v>194.6151136988908</v>
+        <v>151.5426038931862</v>
       </c>
       <c r="D2" t="n">
-        <v>194.6151136988908</v>
+        <v>74.22494884564223</v>
       </c>
       <c r="E2" t="n">
-        <v>101.0141548210095</v>
+        <v>29.13779825025296</v>
       </c>
       <c r="F2" t="n">
-        <v>7.413195943128196</v>
+        <v>29.13779825025296</v>
       </c>
       <c r="G2" t="n">
-        <v>7.413195943128196</v>
+        <v>29.13779825025296</v>
       </c>
       <c r="H2" t="n">
-        <v>7.413195943128196</v>
+        <v>29.13779825025296</v>
       </c>
       <c r="I2" t="n">
-        <v>7.413195943128196</v>
+        <v>29.13779825025296</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128196</v>
+        <v>29.13779825025296</v>
       </c>
       <c r="K2" t="n">
-        <v>21.1835736482147</v>
+        <v>31.34678839675061</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940411</v>
+        <v>70.98899786369053</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056153</v>
+        <v>146.7680315757884</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018267</v>
+        <v>222.5470652878862</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037301</v>
+        <v>286.2823359255683</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564098</v>
+        <v>306.1779139882741</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6597971564098</v>
+        <v>306.1779139882741</v>
       </c>
       <c r="R2" t="n">
-        <v>370.6597971564098</v>
+        <v>306.1779139882741</v>
       </c>
       <c r="S2" t="n">
-        <v>370.6597971564098</v>
+        <v>306.1779139882741</v>
       </c>
       <c r="T2" t="n">
-        <v>370.6597971564098</v>
+        <v>306.1779139882741</v>
       </c>
       <c r="U2" t="n">
-        <v>370.6597971564098</v>
+        <v>306.1779139882741</v>
       </c>
       <c r="V2" t="n">
-        <v>370.6597971564098</v>
+        <v>306.1779139882741</v>
       </c>
       <c r="W2" t="n">
-        <v>370.6597971564098</v>
+        <v>306.1779139882741</v>
       </c>
       <c r="X2" t="n">
-        <v>370.6597971564098</v>
+        <v>306.1779139882741</v>
       </c>
       <c r="Y2" t="n">
-        <v>288.216072576772</v>
+        <v>228.8602589407301</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="C3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="D3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="E3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="F3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="G3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="H3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="I3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="K3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="L3" t="n">
-        <v>81.81537555601344</v>
+        <v>69.96689484960339</v>
       </c>
       <c r="M3" t="n">
-        <v>173.5536753522248</v>
+        <v>145.7459285617012</v>
       </c>
       <c r="N3" t="n">
-        <v>265.2919751484363</v>
+        <v>186.2500274348623</v>
       </c>
       <c r="O3" t="n">
-        <v>355.9587375475845</v>
+        <v>262.0290611469601</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564098</v>
+        <v>306.1779139882741</v>
       </c>
       <c r="Q3" t="n">
-        <v>370.6597971564098</v>
+        <v>285.3567146542753</v>
       </c>
       <c r="R3" t="n">
-        <v>285.2360815879455</v>
+        <v>285.3567146542753</v>
       </c>
       <c r="S3" t="n">
-        <v>191.6351227100642</v>
+        <v>208.0390596067313</v>
       </c>
       <c r="T3" t="n">
-        <v>98.03416383218293</v>
+        <v>130.7214045591874</v>
       </c>
       <c r="U3" t="n">
-        <v>7.413195943128196</v>
+        <v>53.4037495116434</v>
       </c>
       <c r="V3" t="n">
-        <v>7.413195943128196</v>
+        <v>53.4037495116434</v>
       </c>
       <c r="W3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="X3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765482</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.84877543131489</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C5" t="n">
-        <v>90.84877543131489</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D5" t="n">
-        <v>90.84877543131489</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E5" t="n">
-        <v>90.84877543131489</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F5" t="n">
-        <v>90.84877543131489</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G5" t="n">
-        <v>90.84877543131489</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H5" t="n">
-        <v>90.84877543131489</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I5" t="n">
-        <v>32.32619339506584</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J5" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K5" t="n">
-        <v>21.75864424647176</v>
+        <v>32.11753523687542</v>
       </c>
       <c r="L5" t="n">
-        <v>76.3556883291308</v>
+        <v>97.73708609773405</v>
       </c>
       <c r="M5" t="n">
-        <v>168.7748570393586</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N5" t="n">
-        <v>261.5257787062667</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O5" t="n">
-        <v>341.228106618535</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P5" t="n">
-        <v>374.7511986541741</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="Q5" t="n">
-        <v>374.7511986541741</v>
+        <v>432.6813068454351</v>
       </c>
       <c r="R5" t="n">
-        <v>374.7511986541741</v>
+        <v>432.6813068454351</v>
       </c>
       <c r="S5" t="n">
-        <v>374.7511986541741</v>
+        <v>432.6813068454351</v>
       </c>
       <c r="T5" t="n">
-        <v>374.7511986541741</v>
+        <v>319.4361956081385</v>
       </c>
       <c r="U5" t="n">
-        <v>374.7511986541741</v>
+        <v>206.1910843708418</v>
       </c>
       <c r="V5" t="n">
-        <v>374.7511986541741</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="W5" t="n">
-        <v>374.7511986541741</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="X5" t="n">
-        <v>280.1170575798877</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="Y5" t="n">
-        <v>185.4829165056013</v>
+        <v>122.2141240472905</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.97322324811245</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="C6" t="n">
-        <v>85.97322324811245</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="D6" t="n">
-        <v>85.97322324811245</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="E6" t="n">
-        <v>85.97322324811245</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="F6" t="n">
-        <v>7.495023973083481</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="G6" t="n">
-        <v>7.495023973083481</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I6" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J6" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K6" t="n">
-        <v>7.495023973083481</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L6" t="n">
-        <v>44.2577937312509</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M6" t="n">
-        <v>137.008715398159</v>
+        <v>230.1803012028976</v>
       </c>
       <c r="N6" t="n">
-        <v>229.7596370650671</v>
+        <v>341.171834726572</v>
       </c>
       <c r="O6" t="n">
-        <v>320.9200204165362</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P6" t="n">
-        <v>374.7511986541741</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="Q6" t="n">
-        <v>360.5337929271206</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="R6" t="n">
-        <v>275.2415053966852</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="S6" t="n">
-        <v>180.6073643223988</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="T6" t="n">
-        <v>85.97322324811245</v>
+        <v>335.2055292623979</v>
       </c>
       <c r="U6" t="n">
-        <v>85.97322324811245</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="V6" t="n">
-        <v>85.97322324811245</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="W6" t="n">
-        <v>85.97322324811245</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="X6" t="n">
-        <v>85.97322324811245</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="Y6" t="n">
-        <v>85.97322324811245</v>
+        <v>221.9604180251013</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="M7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="N7" t="n">
-        <v>7.495023973083481</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="O7" t="n">
-        <v>7.495023973083481</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="P7" t="n">
-        <v>7.495023973083481</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.495023973083481</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="R7" t="n">
-        <v>7.495023973083481</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="S7" t="n">
-        <v>7.495023973083481</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="T7" t="n">
-        <v>7.495023973083481</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="U7" t="n">
-        <v>7.495023973083481</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="V7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="W7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="X7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.495023973083481</v>
+        <v>8.969012809993892</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>323.7496846481794</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C8" t="n">
-        <v>323.7496846481794</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D8" t="n">
-        <v>323.7496846481794</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E8" t="n">
-        <v>323.7496846481794</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F8" t="n">
-        <v>323.7496846481794</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G8" t="n">
-        <v>293.9584116261993</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H8" t="n">
-        <v>154.3710055277459</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I8" t="n">
-        <v>20.53218170973862</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J8" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K8" t="n">
-        <v>47.87313233956303</v>
+        <v>51.79022575657168</v>
       </c>
       <c r="L8" t="n">
-        <v>130.4506428787743</v>
+        <v>138.5837562783352</v>
       </c>
       <c r="M8" t="n">
-        <v>254.0034717806221</v>
+        <v>266.8277197508551</v>
       </c>
       <c r="N8" t="n">
-        <v>384.1693230034405</v>
+        <v>401.7606130061291</v>
       </c>
       <c r="O8" t="n">
-        <v>493.7459839967182</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P8" t="n">
-        <v>552.7661281498757</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.7661281498757</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R8" t="n">
-        <v>463.3370907466328</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S8" t="n">
-        <v>323.7496846481794</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="T8" t="n">
-        <v>323.7496846481794</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="U8" t="n">
-        <v>323.7496846481794</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="V8" t="n">
-        <v>323.7496846481794</v>
+        <v>449.9835782035085</v>
       </c>
       <c r="W8" t="n">
-        <v>323.7496846481794</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="X8" t="n">
-        <v>323.7496846481794</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.7496846481794</v>
+        <v>157.7105344236251</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.6427286614509</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="C9" t="n">
-        <v>11.05532256299751</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="D9" t="n">
-        <v>11.05532256299751</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="E9" t="n">
-        <v>11.05532256299751</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="F9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>47.59232956616113</v>
+        <v>50.41925783498755</v>
       </c>
       <c r="L9" t="n">
-        <v>143.0433855837869</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M9" t="n">
-        <v>230.2778462449249</v>
+        <v>283.3396581397943</v>
       </c>
       <c r="N9" t="n">
-        <v>367.0874629620191</v>
+        <v>386.8913402620004</v>
       </c>
       <c r="O9" t="n">
-        <v>480.8193379422796</v>
+        <v>504.0242257254406</v>
       </c>
       <c r="P9" t="n">
-        <v>552.7661281498756</v>
+        <v>578.700626684169</v>
       </c>
       <c r="Q9" t="n">
-        <v>552.7661281498756</v>
+        <v>578.700626684169</v>
       </c>
       <c r="R9" t="n">
-        <v>552.7661281498756</v>
+        <v>578.700626684169</v>
       </c>
       <c r="S9" t="n">
-        <v>552.7661281498756</v>
+        <v>432.5641047942273</v>
       </c>
       <c r="T9" t="n">
-        <v>552.7661281498756</v>
+        <v>432.5641047942273</v>
       </c>
       <c r="U9" t="n">
-        <v>552.7661281498756</v>
+        <v>432.5641047942273</v>
       </c>
       <c r="V9" t="n">
-        <v>552.7661281498756</v>
+        <v>286.4275829042856</v>
       </c>
       <c r="W9" t="n">
-        <v>552.7661281498756</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="X9" t="n">
-        <v>429.8175408583578</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="Y9" t="n">
-        <v>290.2301347599044</v>
+        <v>157.7105344236251</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J10" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K10" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L10" t="n">
-        <v>11.05532256299751</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M10" t="n">
-        <v>14.31360557717602</v>
+        <v>18.49252890534889</v>
       </c>
       <c r="N10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="P10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="S10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="T10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="U10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="V10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="W10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="X10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1256.740097465976</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="C11" t="n">
-        <v>1256.740097465976</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="D11" t="n">
-        <v>1256.740097465976</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="E11" t="n">
-        <v>1256.740097465976</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="F11" t="n">
-        <v>845.7541926763687</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G11" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H11" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I11" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J11" t="n">
-        <v>152.5078184301908</v>
+        <v>152.507818430191</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232734</v>
+        <v>366.8168396232736</v>
       </c>
       <c r="L11" t="n">
-        <v>669.5878927711885</v>
+        <v>669.5878927711894</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135171</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545601</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172452</v>
       </c>
       <c r="Q11" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="R11" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="S11" t="n">
-        <v>2036.325171642787</v>
+        <v>2036.325171642789</v>
       </c>
       <c r="T11" t="n">
-        <v>1826.151173794703</v>
+        <v>1826.151173794704</v>
       </c>
       <c r="U11" t="n">
-        <v>1572.544009457212</v>
+        <v>1572.544009457214</v>
       </c>
       <c r="V11" t="n">
-        <v>1256.740097465976</v>
+        <v>1241.481122113643</v>
       </c>
       <c r="W11" t="n">
-        <v>1256.740097465976</v>
+        <v>888.7124668435288</v>
       </c>
       <c r="X11" t="n">
-        <v>1256.740097465976</v>
+        <v>849.5395738104976</v>
       </c>
       <c r="Y11" t="n">
-        <v>1256.740097465976</v>
+        <v>459.4002418346859</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5261380428188</v>
+        <v>464.9088565162554</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0731087616919</v>
+        <v>388.207190072526</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1386991004406</v>
+        <v>239.2727804112747</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9012440949851</v>
+        <v>80.03532540581921</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3666861218701</v>
+        <v>80.03532540581921</v>
       </c>
       <c r="G12" t="n">
-        <v>175.490692336986</v>
+        <v>80.03532540581921</v>
       </c>
       <c r="H12" t="n">
-        <v>80.03532540581919</v>
+        <v>80.03532540581921</v>
       </c>
       <c r="I12" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J12" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562348</v>
       </c>
       <c r="K12" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L12" t="n">
-        <v>504.1959674104402</v>
+        <v>504.1959674104406</v>
       </c>
       <c r="M12" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N12" t="n">
         <v>1166.885386873582</v>
       </c>
       <c r="O12" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P12" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q12" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R12" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S12" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T12" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U12" t="n">
-        <v>1595.273638474385</v>
+        <v>1538.125457466754</v>
       </c>
       <c r="V12" t="n">
-        <v>1595.273638474385</v>
+        <v>1302.973349235012</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.353274033374</v>
+        <v>1048.73599250681</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.501773827841</v>
+        <v>840.8844923012773</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.741475062887</v>
+        <v>633.1241935363234</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="C13" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="D13" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="E13" t="n">
-        <v>490.1366584153656</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="F13" t="n">
-        <v>490.1366584153656</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="G13" t="n">
-        <v>322.0038290103839</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H13" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I13" t="n">
-        <v>61.70688273934481</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J13" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="K13" t="n">
-        <v>92.71685897981544</v>
+        <v>92.71685897981553</v>
       </c>
       <c r="L13" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M13" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927341</v>
       </c>
       <c r="N13" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377472</v>
       </c>
       <c r="O13" t="n">
-        <v>472.3091036033668</v>
+        <v>472.3091036033673</v>
       </c>
       <c r="P13" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="R13" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="S13" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="T13" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="U13" t="n">
-        <v>520.2893470406002</v>
+        <v>271.3587474361105</v>
       </c>
       <c r="V13" t="n">
-        <v>520.2893470406002</v>
+        <v>271.3587474361105</v>
       </c>
       <c r="W13" t="n">
-        <v>520.2893470406002</v>
+        <v>271.3587474361105</v>
       </c>
       <c r="X13" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="Y13" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809316</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>350.7700094231265</v>
+        <v>828.3627587750976</v>
       </c>
       <c r="C14" t="n">
-        <v>350.7700094231265</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="D14" t="n">
-        <v>350.7700094231265</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="E14" t="n">
-        <v>350.7700094231265</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="F14" t="n">
-        <v>350.7700094231265</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G14" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H14" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I14" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J14" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K14" t="n">
-        <v>366.8168396232725</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L14" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M14" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N14" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O14" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q14" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R14" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S14" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T14" t="n">
-        <v>1958.285829056572</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U14" t="n">
-        <v>1958.285829056572</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="V14" t="n">
-        <v>1627.222941713001</v>
+        <v>1605.101930815031</v>
       </c>
       <c r="W14" t="n">
-        <v>1274.454286442887</v>
+        <v>1605.101930815031</v>
       </c>
       <c r="X14" t="n">
-        <v>900.9885281818072</v>
+        <v>1605.101930815031</v>
       </c>
       <c r="Y14" t="n">
-        <v>510.8491962059954</v>
+        <v>1214.962598839219</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>804.6501442579348</v>
+        <v>388.207190072526</v>
       </c>
       <c r="C15" t="n">
-        <v>630.1971149768078</v>
+        <v>388.207190072526</v>
       </c>
       <c r="D15" t="n">
-        <v>481.2627053155565</v>
+        <v>239.2727804112747</v>
       </c>
       <c r="E15" t="n">
-        <v>322.025250310101</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="F15" t="n">
-        <v>175.490692336986</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="G15" t="n">
-        <v>175.490692336986</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="H15" t="n">
-        <v>80.03532540581918</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="I15" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J15" t="n">
-        <v>89.55356510562341</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K15" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L15" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M15" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N15" t="n">
         <v>1166.885386873582</v>
       </c>
       <c r="O15" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P15" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q15" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R15" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S15" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T15" t="n">
-        <v>1400.563316948361</v>
+        <v>1571.516725807466</v>
       </c>
       <c r="U15" t="n">
-        <v>1172.461727081625</v>
+        <v>1343.41513594073</v>
       </c>
       <c r="V15" t="n">
-        <v>937.3096188498821</v>
+        <v>1108.263027708988</v>
       </c>
       <c r="W15" t="n">
-        <v>937.3096188498821</v>
+        <v>854.0256709807861</v>
       </c>
       <c r="X15" t="n">
-        <v>804.6501442579348</v>
+        <v>646.1741707752533</v>
       </c>
       <c r="Y15" t="n">
-        <v>804.6501442579348</v>
+        <v>438.4138720102994</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>388.3019303235357</v>
+        <v>49.22371217340034</v>
       </c>
       <c r="C16" t="n">
-        <v>388.3019303235357</v>
+        <v>49.22371217340034</v>
       </c>
       <c r="D16" t="n">
-        <v>388.3019303235357</v>
+        <v>49.22371217340034</v>
       </c>
       <c r="E16" t="n">
-        <v>388.3019303235357</v>
+        <v>49.22371217340034</v>
       </c>
       <c r="F16" t="n">
-        <v>388.3019303235357</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G16" t="n">
-        <v>322.0038290103839</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I16" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K16" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L16" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M16" t="n">
-        <v>287.1411594927338</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N16" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O16" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P16" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q16" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R16" t="n">
-        <v>388.3019303235357</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S16" t="n">
-        <v>388.3019303235357</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T16" t="n">
-        <v>388.3019303235357</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U16" t="n">
-        <v>388.3019303235357</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V16" t="n">
-        <v>388.3019303235357</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W16" t="n">
-        <v>388.3019303235357</v>
+        <v>230.87217700364</v>
       </c>
       <c r="X16" t="n">
-        <v>388.3019303235357</v>
+        <v>230.87217700364</v>
       </c>
       <c r="Y16" t="n">
-        <v>388.3019303235357</v>
+        <v>230.87217700364</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1683.556516372673</v>
+        <v>812.6207999344513</v>
       </c>
       <c r="C17" t="n">
-        <v>1683.556516372673</v>
+        <v>812.6207999344513</v>
       </c>
       <c r="D17" t="n">
-        <v>1642.52835006422</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="E17" t="n">
-        <v>1256.740097465976</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="F17" t="n">
-        <v>845.7541926763686</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G17" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H17" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I17" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J17" t="n">
-        <v>152.5078184301905</v>
+        <v>152.507818430191</v>
       </c>
       <c r="K17" t="n">
-        <v>366.8168396232725</v>
+        <v>366.8168396232736</v>
       </c>
       <c r="L17" t="n">
-        <v>669.5878927711874</v>
+        <v>669.587892771189</v>
       </c>
       <c r="M17" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N17" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O17" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P17" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q17" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R17" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S17" t="n">
-        <v>2036.325171642787</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T17" t="n">
-        <v>2036.325171642787</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U17" t="n">
-        <v>2036.325171642787</v>
+        <v>1572.544009457213</v>
       </c>
       <c r="V17" t="n">
-        <v>2036.325171642787</v>
+        <v>1572.544009457213</v>
       </c>
       <c r="W17" t="n">
-        <v>1683.556516372673</v>
+        <v>1572.544009457213</v>
       </c>
       <c r="X17" t="n">
-        <v>1683.556516372673</v>
+        <v>1199.078251196133</v>
       </c>
       <c r="Y17" t="n">
-        <v>1683.556516372673</v>
+        <v>812.6207999344513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>525.9940904859269</v>
+        <v>192.3036061993444</v>
       </c>
       <c r="C18" t="n">
-        <v>351.5410612047999</v>
+        <v>192.3036061993444</v>
       </c>
       <c r="D18" t="n">
-        <v>202.6066515435486</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E18" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F18" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G18" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H18" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I18" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J18" t="n">
-        <v>89.55356510562341</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K18" t="n">
         <v>246.6448318504524</v>
@@ -5621,25 +5621,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S18" t="n">
-        <v>1766.227047333489</v>
+        <v>1688.332118542603</v>
       </c>
       <c r="T18" t="n">
-        <v>1766.227047333489</v>
+        <v>1493.621797016579</v>
       </c>
       <c r="U18" t="n">
-        <v>1599.210691436426</v>
+        <v>1265.520207149843</v>
       </c>
       <c r="V18" t="n">
-        <v>1364.058583204683</v>
+        <v>1030.368098918101</v>
       </c>
       <c r="W18" t="n">
-        <v>1109.821226476482</v>
+        <v>776.1307421898991</v>
       </c>
       <c r="X18" t="n">
-        <v>901.9697262709487</v>
+        <v>568.2792419843663</v>
       </c>
       <c r="Y18" t="n">
-        <v>694.2094275059949</v>
+        <v>360.5189432194124</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.36919653809313</v>
+        <v>296.6854897332239</v>
       </c>
       <c r="C19" t="n">
-        <v>43.36919653809313</v>
+        <v>193.4858359504289</v>
       </c>
       <c r="D19" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E19" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F19" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G19" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H19" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I19" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J19" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K19" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981548</v>
       </c>
       <c r="L19" t="n">
         <v>185.7706748018946</v>
@@ -5703,22 +5703,22 @@
         <v>520.2893470406003</v>
       </c>
       <c r="T19" t="n">
-        <v>520.2893470406003</v>
+        <v>296.6854897332239</v>
       </c>
       <c r="U19" t="n">
-        <v>520.2893470406003</v>
+        <v>296.6854897332239</v>
       </c>
       <c r="V19" t="n">
-        <v>520.2893470406003</v>
+        <v>296.6854897332239</v>
       </c>
       <c r="W19" t="n">
-        <v>271.3587474361105</v>
+        <v>296.6854897332239</v>
       </c>
       <c r="X19" t="n">
-        <v>43.36919653809313</v>
+        <v>296.6854897332239</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.36919653809313</v>
+        <v>296.6854897332239</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1837.396939561086</v>
+        <v>828.3627587750976</v>
       </c>
       <c r="C20" t="n">
-        <v>1693.393235785938</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="D20" t="n">
-        <v>1335.127537179187</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="E20" t="n">
-        <v>949.3392845809428</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="F20" t="n">
-        <v>538.3533797913352</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G20" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H20" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I20" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J20" t="n">
-        <v>152.5078184301905</v>
+        <v>152.507818430191</v>
       </c>
       <c r="K20" t="n">
-        <v>366.8168396232726</v>
+        <v>366.8168396232732</v>
       </c>
       <c r="L20" t="n">
-        <v>669.5878927711876</v>
+        <v>669.5878927711885</v>
       </c>
       <c r="M20" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N20" t="n">
         <v>1417.286540135169</v>
       </c>
       <c r="O20" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P20" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q20" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R20" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S20" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T20" t="n">
-        <v>2168.459826904656</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U20" t="n">
-        <v>2168.459826904656</v>
+        <v>1588.428357100299</v>
       </c>
       <c r="V20" t="n">
-        <v>1837.396939561086</v>
+        <v>1588.428357100299</v>
       </c>
       <c r="W20" t="n">
-        <v>1837.396939561086</v>
+        <v>1588.428357100299</v>
       </c>
       <c r="X20" t="n">
-        <v>1837.396939561086</v>
+        <v>1214.962598839219</v>
       </c>
       <c r="Y20" t="n">
-        <v>1837.396939561086</v>
+        <v>1214.962598839219</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>349.1412095166637</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C21" t="n">
-        <v>349.1412095166637</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D21" t="n">
         <v>349.1412095166637</v>
       </c>
       <c r="E21" t="n">
-        <v>189.9037545112081</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F21" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G21" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H21" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I21" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J21" t="n">
-        <v>89.55356510562343</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K21" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L21" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M21" t="n">
-        <v>824.1028628789502</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N21" t="n">
         <v>1166.885386873582</v>
       </c>
       <c r="O21" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P21" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q21" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R21" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S21" t="n">
-        <v>1676.954384839855</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T21" t="n">
-        <v>1482.244063313831</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="U21" t="n">
-        <v>1254.142473447095</v>
+        <v>1302.832842412844</v>
       </c>
       <c r="V21" t="n">
-        <v>1018.990365215352</v>
+        <v>1302.832842412844</v>
       </c>
       <c r="W21" t="n">
-        <v>764.7530084871504</v>
+        <v>1048.595485684643</v>
       </c>
       <c r="X21" t="n">
-        <v>556.9015082816176</v>
+        <v>840.7439854791101</v>
       </c>
       <c r="Y21" t="n">
-        <v>349.1412095166637</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.6048588347137</v>
+        <v>212.3053794660001</v>
       </c>
       <c r="C22" t="n">
-        <v>265.6048588347137</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D22" t="n">
-        <v>265.6048588347137</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E22" t="n">
-        <v>265.6048588347137</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F22" t="n">
-        <v>265.6048588347137</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G22" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H22" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I22" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J22" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K22" t="n">
-        <v>92.7168589798155</v>
+        <v>92.71685897981548</v>
       </c>
       <c r="L22" t="n">
         <v>185.7706748018946</v>
       </c>
       <c r="M22" t="n">
-        <v>287.1411594927339</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N22" t="n">
-        <v>393.958806537747</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O22" t="n">
-        <v>472.3091036033671</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P22" t="n">
-        <v>520.2893470406005</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q22" t="n">
-        <v>520.2893470406005</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R22" t="n">
-        <v>520.2893470406005</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S22" t="n">
-        <v>520.2893470406005</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T22" t="n">
-        <v>520.2893470406005</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="U22" t="n">
-        <v>520.2893470406005</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="V22" t="n">
-        <v>265.6048588347137</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="W22" t="n">
-        <v>265.6048588347137</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="X22" t="n">
-        <v>265.6048588347137</v>
+        <v>292.299796142583</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.6048588347137</v>
+        <v>292.299796142583</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1636.624422581789</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5989,7 +5989,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -5998,7 +5998,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6025,16 +6025,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>2026.763754557601</v>
+        <v>1884.888840068344</v>
       </c>
       <c r="Y23" t="n">
-        <v>1636.624422581789</v>
+        <v>1494.749508092533</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
         <v>618.1564155387305</v>
@@ -6056,13 +6056,13 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6074,28 +6074,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2471.23093222317</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C25" t="n">
-        <v>2471.23093222317</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.23093222317</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.23093222317</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.605821609171</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W25" t="n">
-        <v>3036.18865157221</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X25" t="n">
-        <v>2808.199100674193</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y25" t="n">
-        <v>2587.406521530663</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1647.321240915451</v>
+        <v>1659.057359339774</v>
       </c>
       <c r="C26" t="n">
-        <v>1278.358723975039</v>
+        <v>1659.057359339774</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1300.791660733024</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>915.0034081347794</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>504.0175033451719</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>88.94505319016832</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>88.94505319016832</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6256,22 +6256,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V26" t="n">
-        <v>3150.294826486578</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W26" t="n">
-        <v>2797.526171216464</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X26" t="n">
-        <v>2424.060412955384</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="Y26" t="n">
-        <v>2033.921080979572</v>
+        <v>2045.657199403896</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>533.4780323548192</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C28" t="n">
-        <v>364.5418494269123</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D28" t="n">
         <v>214.4252100145765</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
         <v>176.6457242372933</v>
@@ -6393,43 +6393,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V28" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W28" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X28" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y28" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1122.251160158768</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G29" t="n">
         <v>406.0926155839475</v>
@@ -6466,7 +6466,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W29" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X29" t="n">
-        <v>2741.012457539437</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y29" t="n">
-        <v>2731.767278738087</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>531.7821255545682</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>362.8459426266613</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>212.7293032143256</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
         <v>66.51211643218342</v>
@@ -6657,16 +6657,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X31" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y31" t="n">
-        <v>713.4305903848079</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1175.30093260579</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C32" t="n">
-        <v>806.3384156653785</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D32" t="n">
-        <v>448.072717058628</v>
+        <v>731.5828752918126</v>
       </c>
       <c r="E32" t="n">
         <v>364.0957168234162</v>
@@ -6694,34 +6694,34 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>2678.274518176918</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W32" t="n">
-        <v>2325.505862906803</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X32" t="n">
-        <v>1952.040104645724</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y32" t="n">
-        <v>1561.900772669912</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>457.9680739783734</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="C34" t="n">
-        <v>457.9680739783734</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="D34" t="n">
-        <v>457.9680739783734</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="E34" t="n">
-        <v>310.0549803959803</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="F34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K34" t="n">
         <v>176.6457242372933</v>
@@ -6867,43 +6867,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>457.9680739783734</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V34" t="n">
-        <v>457.9680739783734</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W34" t="n">
-        <v>457.9680739783734</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X34" t="n">
-        <v>457.9680739783734</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y34" t="n">
-        <v>457.9680739783734</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694472</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.606831754061</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D35" t="n">
-        <v>821.1650657389509</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E35" t="n">
-        <v>821.1650657389509</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G35" t="n">
         <v>406.0926155839475</v>
@@ -6934,31 +6934,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6973,16 +6973,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995485</v>
+        <v>2706.834160558895</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734406</v>
+        <v>2706.834160558895</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758594</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
         <v>767.0908251999817</v>
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>417.6040489720652</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>417.6040489720652</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>417.6040489720652</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>417.6040489720652</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372933</v>
@@ -7104,43 +7104,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>417.6040489720652</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>417.6040489720652</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V37" t="n">
-        <v>417.6040489720652</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W37" t="n">
-        <v>417.6040489720652</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X37" t="n">
-        <v>417.6040489720652</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y37" t="n">
-        <v>417.6040489720652</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1749.723851760224</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1380.761334819812</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1022.495636213062</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7195,7 +7195,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7204,22 +7204,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539437</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W38" t="n">
-        <v>2741.012457539437</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X38" t="n">
-        <v>2741.012457539437</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y38" t="n">
-        <v>2731.767278738087</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372933</v>
@@ -7341,43 +7341,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>832.0660869429007</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>610.2994715124267</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>321.1966046380703</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>66.51211643218343</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X40" t="n">
-        <v>66.51211643218343</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796261</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C41" t="n">
-        <v>779.1681669784198</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D41" t="n">
-        <v>779.1681669784198</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E41" t="n">
-        <v>779.1681669784198</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="F41" t="n">
         <v>779.1681669784198</v>
@@ -7411,10 +7411,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943748</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2790.283754563412</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C43" t="n">
-        <v>2621.347571635506</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D43" t="n">
-        <v>2471.23093222317</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>3133.919937435997</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>3133.919937435997</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V43" t="n">
-        <v>3133.919937435997</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W43" t="n">
-        <v>3133.919937435997</v>
+        <v>442.4147609125939</v>
       </c>
       <c r="X43" t="n">
-        <v>3133.919937435997</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y43" t="n">
-        <v>2971.932219393652</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1190.154071768027</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C44" t="n">
-        <v>1190.154071768027</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D44" t="n">
-        <v>1190.154071768027</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3230.168292298504</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3024.190544682726</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U44" t="n">
-        <v>3024.190544682726</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V44" t="n">
-        <v>2693.127657339155</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W44" t="n">
-        <v>2340.359002069041</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X44" t="n">
-        <v>1966.893243807961</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y44" t="n">
-        <v>1576.753911832149</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>313.9544330261738</v>
+        <v>478.3278112441808</v>
       </c>
       <c r="C46" t="n">
-        <v>313.9544330261738</v>
+        <v>478.3278112441808</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8377936138381</v>
+        <v>328.211171831845</v>
       </c>
       <c r="E46" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W46" t="n">
-        <v>631.4698357812242</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X46" t="n">
-        <v>534.7470121697039</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y46" t="n">
-        <v>313.9544330261738</v>
+        <v>478.3278112441808</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.0688923743782</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>288.7284132739391</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>278.1385631236144</v>
       </c>
       <c r="E2" t="n">
-        <v>289.2654207831594</v>
+        <v>337.2940909828264</v>
       </c>
       <c r="F2" t="n">
-        <v>314.211096452609</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.4631744246258</v>
+        <v>413.5549812247485</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6353766150897</v>
+        <v>321.5755930068457</v>
       </c>
       <c r="I2" t="n">
-        <v>139.5561335235496</v>
+        <v>143.0955151852775</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358025</v>
+        <v>32.7072740754889</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422313</v>
+        <v>33.56767277096648</v>
       </c>
       <c r="R2" t="n">
-        <v>100.031082829933</v>
+        <v>105.7980417381366</v>
       </c>
       <c r="S2" t="n">
-        <v>167.1010256612667</v>
+        <v>169.1930731190613</v>
       </c>
       <c r="T2" t="n">
-        <v>215.0431621354273</v>
+        <v>215.4450464029641</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1984878605957</v>
+        <v>251.2058324046056</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>304.6186513222122</v>
+        <v>309.6934601589851</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.3592641379443</v>
+        <v>136.4083851065194</v>
       </c>
       <c r="H3" t="n">
-        <v>102.729632124056</v>
+        <v>103.2040372679255</v>
       </c>
       <c r="I3" t="n">
-        <v>65.63472101604998</v>
+        <v>67.32594734637517</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516765</v>
+        <v>38.48815459128677</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,25 +22670,25 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.34273879062262</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>87.61928732132534</v>
       </c>
       <c r="S3" t="n">
-        <v>60.73615356033687</v>
+        <v>77.76902479936788</v>
       </c>
       <c r="T3" t="n">
-        <v>103.5325490100185</v>
+        <v>119.851011776265</v>
       </c>
       <c r="U3" t="n">
-        <v>136.1618703823063</v>
+        <v>149.3353817380713</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>204.8875938413605</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,49 +22719,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1658146852775</v>
+        <v>167.2069960552505</v>
       </c>
       <c r="H4" t="n">
-        <v>154.8907084131551</v>
+        <v>155.2568482298245</v>
       </c>
       <c r="I4" t="n">
-        <v>130.6355227555884</v>
+        <v>131.873958863505</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547944</v>
+        <v>71.56780190257361</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092821</v>
+        <v>37.92865257961452</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026832</v>
+        <v>18.32774045698787</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924566</v>
+        <v>16.03283760924445</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410117</v>
+        <v>7.714717711557739</v>
       </c>
       <c r="O4" t="n">
-        <v>21.82326264618293</v>
+        <v>27.64406210382727</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638599</v>
+        <v>42.90878708658025</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605681</v>
+        <v>85.85709066716319</v>
       </c>
       <c r="R4" t="n">
-        <v>140.1909870721275</v>
+        <v>142.0426512165517</v>
       </c>
       <c r="S4" t="n">
-        <v>209.6362282325312</v>
+        <v>210.3539071983341</v>
       </c>
       <c r="T4" t="n">
-        <v>224.4198858246887</v>
+        <v>224.5958425873008</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2762666308614</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.0460419999371</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.4592576783313</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H5" t="n">
-        <v>320.5952642371006</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I5" t="n">
-        <v>81.46777694614212</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>18.59473170946467</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.23060664780667</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>99.78504751550746</v>
+        <v>95.35315165846211</v>
       </c>
       <c r="S5" t="n">
-        <v>167.0117728050795</v>
+        <v>165.4040387101213</v>
       </c>
       <c r="T5" t="n">
-        <v>215.0260165785229</v>
+        <v>102.6045092346994</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1981745208922</v>
+        <v>139.0798701292611</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>244.6150677498191</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>276.0433010149255</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.5501389925101</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>67.37579511110521</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3571684939245</v>
+        <v>24.2067590074072</v>
       </c>
       <c r="H6" t="n">
-        <v>102.7093926147071</v>
+        <v>3.595982216019408</v>
       </c>
       <c r="I6" t="n">
-        <v>65.56256836010607</v>
+        <v>64.26286446312979</v>
       </c>
       <c r="J6" t="n">
-        <v>33.64930787240488</v>
+        <v>30.08282103867673</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.256558775821446</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.09559288881302</v>
       </c>
       <c r="S6" t="n">
-        <v>59.67437751737064</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T6" t="n">
-        <v>102.5012517195504</v>
+        <v>83.92423484016756</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8764907211534</v>
+        <v>113.7613470855986</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,52 +22956,52 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1640577677285</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H7" t="n">
-        <v>154.8750878189473</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I7" t="n">
-        <v>130.5826874532987</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J7" t="n">
-        <v>68.53206497476995</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K7" t="n">
-        <v>32.94000426569777</v>
+        <v>29.26310570632464</v>
       </c>
       <c r="L7" t="n">
-        <v>11.94398814667531</v>
+        <v>7.238823902544766</v>
       </c>
       <c r="M7" t="n">
-        <v>9.302065866140651</v>
+        <v>4.341129883412094</v>
       </c>
       <c r="N7" t="n">
-        <v>1.143988676490395</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>21.57493033663026</v>
+        <v>17.1016581299688</v>
       </c>
       <c r="P7" t="n">
-        <v>37.71559638483154</v>
+        <v>33.88793923037926</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.26159460930035</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R7" t="n">
-        <v>140.1119896703364</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S7" t="n">
-        <v>209.6056099512466</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T7" t="n">
-        <v>224.4123789951615</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2739245424511</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>248.5122658350244</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>238.0586849924383</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>383.7867988175496</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H8" t="n">
-        <v>180.5695389796402</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.889976052385833</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S8" t="n">
-        <v>24.73903212603307</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>214.2420125926312</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1838466353705</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>201.2981633272049</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>204.5658120463708</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>241.5627819850113</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.34165161239844</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>34.51696695084684</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0.3940557223416192</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2613423114523</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>101.783913431357</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>62.26328970919874</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J9" t="n">
-        <v>24.59583508015078</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,31 +23144,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.843103535259758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>78.4897355363738</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S9" t="n">
-        <v>151.5822478705202</v>
+        <v>6.638896330325082</v>
       </c>
       <c r="T9" t="n">
-        <v>195.802804621287</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8701863670433</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>88.12543047838301</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>124.2651051650657</v>
       </c>
       <c r="X9" t="n">
-        <v>84.05388378487486</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>67.49116373983546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0837203153539</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>154.1608148332895</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>128.1667211582515</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>48.69855601750541</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K10" t="n">
-        <v>23.60625298072098</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,25 +23217,25 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>10.21959661371795</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P10" t="n">
-        <v>27.99914669036119</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.53442848364141</v>
+        <v>74.52079753307214</v>
       </c>
       <c r="R10" t="n">
-        <v>136.4997256753837</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>208.2055472585001</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0691189713791</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2695424995943</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>198.991834717043</v>
       </c>
     </row>
     <row r="11">
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>15.10638559881176</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>330.9499365757682</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>96.7738492090236</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23348,13 +23348,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>182.4738223643186</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>116.5828009075869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.59469128425545</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R13" t="n">
         <v>108.0728512656385</v>
@@ -23472,7 +23472,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2350578157167</v>
+        <v>39.79376420727132</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>224.2554467484403</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>78.16360657708287</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>108.9135079202594</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>116.8285685314717</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23585,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>135.5072338470352</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>74.44010535744968</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>139.6250775439771</v>
       </c>
       <c r="G16" t="n">
-        <v>100.8163808109115</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S16" t="n">
         <v>197.1876907596158</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>314.0651569753146</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>3.645061906988815</v>
       </c>
     </row>
     <row r="18">
@@ -23813,13 +23813,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23861,13 +23861,13 @@
         <v>31.66886087721421</v>
       </c>
       <c r="S18" t="n">
-        <v>137.5750138932992</v>
+        <v>60.45903439032222</v>
       </c>
       <c r="T18" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>60.47438162997594</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>65.07916385366076</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23943,7 +23943,7 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T19" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2350578157167</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>40.08170472814609</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>222.7092250336109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0710926941158</v>
+        <v>15.72550416665572</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.6688608772142</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S21" t="n">
-        <v>49.19507802460041</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>97.39854330069335</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>100.6375076721202</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>94.97800679852264</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I22" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J22" t="n">
-        <v>18.15430933923913</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>324.9715853716611</v>
+        <v>184.5154200272974</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.81814676751941</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24423,16 +24423,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>63.96020458024597</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>19.3683223825209</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>154.1943732987675</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.82009478979613</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>21.95313171484396</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>79.80945668490108</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>377.0852116427175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24897,16 +24897,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>239.7334630070643</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.20280207305163</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>298.793139839402</v>
+        <v>18.11808318854941</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>124.4623873968217</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>47.47104496036863</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>56.25569326572452</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>64.40928274777423</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>59.55223036870413</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>206.180473035331</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>294.8813866572834</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>377.0852116427171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>101.8363156449105</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>30.40721460851282</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0966257588133</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>12.76596266205354</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>32.38442515622512</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>58.21681249017323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>14.70460777061523</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>343.4505891785435</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>32.77294582383544</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>129.954060013632</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>335249.3307048351</v>
+        <v>318472.0543272131</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>336064.6705605726</v>
+        <v>350749.4278478483</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>372023.63381515</v>
+        <v>377311.0572889817</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632720.5423917638</v>
+        <v>632720.542391764</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632720.5423917638</v>
+        <v>632720.5423917639</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632720.542391764</v>
+        <v>632720.5423917639</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632720.5423917639</v>
+        <v>632720.5423917638</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534363</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534363</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143678.2845877864</v>
+        <v>136488.0232830912</v>
       </c>
       <c r="C2" t="n">
-        <v>144027.715954531</v>
+        <v>150321.1833633635</v>
       </c>
       <c r="D2" t="n">
-        <v>159438.7002064927</v>
+        <v>161704.7388381349</v>
       </c>
       <c r="E2" t="n">
-        <v>271165.946739327</v>
+        <v>271165.9467393273</v>
       </c>
       <c r="F2" t="n">
-        <v>271165.9467393272</v>
+        <v>271165.9467393275</v>
       </c>
       <c r="G2" t="n">
-        <v>271165.9467393271</v>
+        <v>271165.9467393273</v>
       </c>
       <c r="H2" t="n">
         <v>271165.9467393272</v>
       </c>
       <c r="I2" t="n">
-        <v>345493.0262371867</v>
+        <v>345493.026237187</v>
       </c>
       <c r="J2" t="n">
-        <v>345493.026237187</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="K2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="L2" t="n">
+        <v>345493.026237187</v>
+      </c>
+      <c r="M2" t="n">
         <v>345493.0262371869</v>
       </c>
-      <c r="M2" t="n">
-        <v>345493.0262371868</v>
-      </c>
       <c r="N2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="O2" t="n">
         <v>345493.0262371869</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.099248906</v>
+        <v>444586.7849766319</v>
       </c>
       <c r="C3" t="n">
-        <v>1217.643978213621</v>
+        <v>49154.78669341699</v>
       </c>
       <c r="D3" t="n">
-        <v>51978.09670744535</v>
+        <v>38987.5288981988</v>
       </c>
       <c r="E3" t="n">
-        <v>402271.14952318</v>
+        <v>394942.2080289253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>254625.8275892816</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.22799179795</v>
+        <v>20027.403531887</v>
       </c>
       <c r="K3" t="n">
-        <v>263.2489551691</v>
+        <v>9154.111769197843</v>
       </c>
       <c r="L3" t="n">
-        <v>11263.49413024918</v>
+        <v>8241.274813353708</v>
       </c>
       <c r="M3" t="n">
-        <v>100659.3331261215</v>
+        <v>99043.58793293673</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063692</v>
+        <v>52.6889362042231</v>
       </c>
       <c r="C4" t="n">
-        <v>67.88674744105006</v>
+        <v>81.37067654131208</v>
       </c>
       <c r="D4" t="n">
-        <v>100.654298629581</v>
+        <v>105.5521581027501</v>
       </c>
       <c r="E4" t="n">
-        <v>384.3219252469141</v>
+        <v>384.3219252469144</v>
       </c>
       <c r="F4" t="n">
-        <v>384.3219252469142</v>
+        <v>384.3219252469144</v>
       </c>
       <c r="G4" t="n">
         <v>384.3219252469142</v>
       </c>
       <c r="H4" t="n">
-        <v>384.3219252469144</v>
+        <v>384.3219252469142</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49237.11966583625</v>
+        <v>47759.14971631555</v>
       </c>
       <c r="C5" t="n">
-        <v>49320.54850457107</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="D5" t="n">
-        <v>52997.5821980671</v>
+        <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587233</v>
       </c>
       <c r="F5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587232</v>
       </c>
       <c r="G5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587232</v>
       </c>
       <c r="H5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587232</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-377621.0799108165</v>
+        <v>-369937.2149125204</v>
       </c>
       <c r="C6" t="n">
-        <v>93421.63672430525</v>
+        <v>36893.76022380701</v>
       </c>
       <c r="D6" t="n">
-        <v>54362.36700235065</v>
+        <v>56247.71384540057</v>
       </c>
       <c r="E6" t="n">
-        <v>-183061.0065649722</v>
+        <v>-183345.4451868802</v>
       </c>
       <c r="F6" t="n">
-        <v>219210.1429582079</v>
+        <v>211596.7628420453</v>
       </c>
       <c r="G6" t="n">
-        <v>219210.1429582079</v>
+        <v>211596.7628420453</v>
       </c>
       <c r="H6" t="n">
-        <v>219210.1429582079</v>
+        <v>211596.762842045</v>
       </c>
       <c r="I6" t="n">
-        <v>15976.21109750569</v>
+        <v>11902.2157193363</v>
       </c>
       <c r="J6" t="n">
-        <v>246356.8106949896</v>
+        <v>246500.6397767309</v>
       </c>
       <c r="K6" t="n">
-        <v>270338.7897316183</v>
+        <v>257373.93153942</v>
       </c>
       <c r="L6" t="n">
-        <v>259338.5445565383</v>
+        <v>258286.7684952642</v>
       </c>
       <c r="M6" t="n">
-        <v>169942.7055606658</v>
+        <v>167484.4553756812</v>
       </c>
       <c r="N6" t="n">
-        <v>270602.0386867874</v>
+        <v>266528.0433086176</v>
       </c>
       <c r="O6" t="n">
-        <v>270602.0386867875</v>
+        <v>266528.0433086178</v>
       </c>
       <c r="P6" t="n">
-        <v>270602.0386867875</v>
+        <v>266528.0433086178</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641658</v>
+        <v>434.75437723366</v>
       </c>
       <c r="C3" t="n">
-        <v>458.5656094049371</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="D3" t="n">
-        <v>503.116378449036</v>
+        <v>509.8291662011503</v>
       </c>
       <c r="E3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="F3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="G3" t="n">
         <v>853.7106645376849</v>
       </c>
       <c r="H3" t="n">
-        <v>853.710664537685</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="C4" t="n">
-        <v>93.68779966354352</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="D4" t="n">
-        <v>138.1915320374689</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261646</v>
       </c>
       <c r="F4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="G4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="H4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022928</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641658</v>
+        <v>434.75437723366</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9742906407712844</v>
+        <v>41.3613739648422</v>
       </c>
       <c r="D3" t="n">
-        <v>44.5507690440989</v>
+        <v>33.71341500264822</v>
       </c>
       <c r="E3" t="n">
-        <v>350.5942860886488</v>
+        <v>343.8814983365348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.0660360556133</v>
+        <v>236.0660360556134</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="C4" t="n">
-        <v>1.022850374440992</v>
+        <v>35.56818162785511</v>
       </c>
       <c r="D4" t="n">
-        <v>44.50373237392539</v>
+        <v>32.56249654611862</v>
       </c>
       <c r="E4" t="n">
-        <v>403.9234246886952</v>
+        <v>397.4398000551223</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>289.2864986761286</v>
+        <v>289.2864986761283</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910257</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="K4" t="n">
-        <v>1.022850374440878</v>
+        <v>35.56818162785522</v>
       </c>
       <c r="L4" t="n">
-        <v>44.5037323739255</v>
+        <v>32.56249654611862</v>
       </c>
       <c r="M4" t="n">
-        <v>403.923424688695</v>
+        <v>397.4398000551224</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="K4" t="n">
-        <v>1.022850374440992</v>
+        <v>35.56818162785511</v>
       </c>
       <c r="L4" t="n">
-        <v>44.50373237392539</v>
+        <v>32.56249654611862</v>
       </c>
       <c r="M4" t="n">
-        <v>403.9234246886952</v>
+        <v>397.4398000551223</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.839563090509208</v>
+        <v>1.747756290386571</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83942550067743</v>
+        <v>17.89920910892148</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685631</v>
+        <v>67.38037438512836</v>
       </c>
       <c r="J2" t="n">
-        <v>156.130617853106</v>
+        <v>148.3386304511974</v>
       </c>
       <c r="K2" t="n">
-        <v>233.9993234743608</v>
+        <v>222.321154223261</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055321</v>
+        <v>275.8090507951791</v>
       </c>
       <c r="M2" t="n">
-        <v>323.0111825163752</v>
+        <v>306.8907117243413</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856934</v>
+        <v>305.9575420936594</v>
       </c>
       <c r="O2" t="n">
-        <v>309.9456856660335</v>
+        <v>294.4772726718707</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690875</v>
+        <v>251.3295392529521</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6521186902264</v>
+        <v>188.738017103483</v>
       </c>
       <c r="R2" t="n">
-        <v>115.5544549841991</v>
+        <v>109.7874960759956</v>
       </c>
       <c r="S2" t="n">
-        <v>41.91904392497862</v>
+        <v>39.82699646718404</v>
       </c>
       <c r="T2" t="n">
-        <v>8.052687428704061</v>
+        <v>7.65080316116722</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1471650472407366</v>
+        <v>0.1398205032309257</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.984253025266319</v>
+        <v>0.9351320566912686</v>
       </c>
       <c r="H3" t="n">
-        <v>9.505812112440502</v>
+        <v>9.031406968570938</v>
       </c>
       <c r="I3" t="n">
-        <v>33.88765898395002</v>
+        <v>32.19643265362483</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149904</v>
+        <v>88.34947207537992</v>
       </c>
       <c r="K3" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>213.7080965605663</v>
+        <v>203.0425985372862</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7989832111208</v>
+        <v>218.6785124190868</v>
       </c>
       <c r="N3" t="n">
-        <v>224.0066613724358</v>
+        <v>172.2549432683444</v>
       </c>
       <c r="O3" t="n">
-        <v>234.1788327264123</v>
+        <v>219.140722941513</v>
       </c>
       <c r="P3" t="n">
-        <v>148.8239625747599</v>
+        <v>178.5692082641424</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6390352953989</v>
+        <v>119.3687867453627</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118428</v>
+        <v>58.06021664263861</v>
       </c>
       <c r="S3" t="n">
-        <v>18.2820682543985</v>
+        <v>17.3696678074014</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700644</v>
+        <v>3.769238421488051</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436312</v>
+        <v>0.06152184583495191</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812825</v>
+        <v>0.7839833032082392</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284499</v>
+        <v>6.970324277615077</v>
       </c>
       <c r="I4" t="n">
-        <v>24.81495217166985</v>
+        <v>23.57651606375324</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391667</v>
+        <v>55.4276195368225</v>
       </c>
       <c r="K4" t="n">
-        <v>95.86913202960717</v>
+        <v>91.08460559092086</v>
       </c>
       <c r="L4" t="n">
-        <v>122.67948241097</v>
+        <v>116.5569358242504</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3483132696805</v>
+        <v>122.8929463383606</v>
       </c>
       <c r="N4" t="n">
-        <v>126.2726994878231</v>
+        <v>119.9708267536755</v>
       </c>
       <c r="O4" t="n">
-        <v>116.6332758056599</v>
+        <v>110.8124763480155</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276162</v>
+        <v>94.81921696256737</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338904</v>
+        <v>65.64791096228265</v>
       </c>
       <c r="R4" t="n">
-        <v>37.10240430504202</v>
+        <v>35.25074016061773</v>
       </c>
       <c r="S4" t="n">
-        <v>14.38036980444107</v>
+        <v>13.66269083863813</v>
       </c>
       <c r="T4" t="n">
-        <v>3.525703603592752</v>
+        <v>3.349746840980658</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352455</v>
+        <v>0.04276272562954037</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.843479836803766</v>
+        <v>1.914033170647243</v>
       </c>
       <c r="H5" t="n">
-        <v>18.87953787866657</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I5" t="n">
-        <v>71.07075640837725</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J5" t="n">
-        <v>156.4630467989238</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K5" t="n">
-        <v>234.4975482908272</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L5" t="n">
-        <v>290.9149443464106</v>
+        <v>302.0487895769151</v>
       </c>
       <c r="M5" t="n">
-        <v>323.6989288941695</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N5" t="n">
-        <v>323.1008632601344</v>
+        <v>341.5257237215145</v>
       </c>
       <c r="O5" t="n">
-        <v>310.6056133532708</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P5" t="n">
-        <v>265.0947048821777</v>
+        <v>275.2403624805371</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.0750832266428</v>
+        <v>206.6940495567326</v>
       </c>
       <c r="R5" t="n">
-        <v>115.8004902986247</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S5" t="n">
-        <v>42.00829678116585</v>
+        <v>43.6160308761241</v>
       </c>
       <c r="T5" t="n">
-        <v>8.069832985608489</v>
+        <v>8.378680204508312</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1474783869443012</v>
+        <v>0.1531226536517794</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9863486692860912</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H6" t="n">
-        <v>9.526051621789355</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I6" t="n">
-        <v>33.95981163989394</v>
+        <v>35.25951553687021</v>
       </c>
       <c r="J6" t="n">
-        <v>93.18831879426182</v>
+        <v>96.75480562798997</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L6" t="n">
-        <v>175.68849064671</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M6" t="n">
-        <v>235.8218335855618</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N6" t="n">
-        <v>225.0295117468768</v>
+        <v>243.4543722082569</v>
       </c>
       <c r="O6" t="n">
-        <v>234.6774397489587</v>
+        <v>189.3752746148963</v>
       </c>
       <c r="P6" t="n">
-        <v>188.3493349270958</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9065424162386</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R6" t="n">
-        <v>61.24013930883294</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S6" t="n">
-        <v>18.32099392292366</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T6" t="n">
-        <v>3.975677311727708</v>
+        <v>4.127833729730408</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06489135982145339</v>
+        <v>0.06737487045261825</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8269215907302143</v>
+        <v>0.858569387407135</v>
       </c>
       <c r="H7" t="n">
-        <v>7.352084688492275</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I7" t="n">
-        <v>24.86778747395955</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J7" t="n">
-        <v>58.46335646462615</v>
+        <v>60.70085568968444</v>
       </c>
       <c r="K7" t="n">
-        <v>96.07325390483761</v>
+        <v>99.75015246421074</v>
       </c>
       <c r="L7" t="n">
-        <v>122.940688134563</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M7" t="n">
-        <v>129.6237180814644</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N7" t="n">
-        <v>126.5415557887428</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O7" t="n">
-        <v>116.8816081152125</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P7" t="n">
-        <v>100.0124076643161</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.2434070201455</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R7" t="n">
-        <v>37.18140170683309</v>
+        <v>38.60440172832444</v>
       </c>
       <c r="S7" t="n">
-        <v>14.41098808572564</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T7" t="n">
-        <v>3.533210433120006</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04510481403982992</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.022578405825269</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>20.71373109865804</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I8" t="n">
-        <v>77.97545399057874</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J8" t="n">
-        <v>171.6638139714126</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K8" t="n">
-        <v>257.2795578899962</v>
+        <v>260.7122886438576</v>
       </c>
       <c r="L8" t="n">
-        <v>319.1780417772713</v>
+        <v>323.4366478202534</v>
       </c>
       <c r="M8" t="n">
-        <v>355.1470705018665</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N8" t="n">
-        <v>360.8937213974176</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O8" t="n">
-        <v>340.7817073744925</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P8" t="n">
-        <v>290.8493029806812</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q8" t="n">
-        <v>218.4157138220637</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R8" t="n">
-        <v>127.0507907849217</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S8" t="n">
-        <v>46.08950542274336</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T8" t="n">
-        <v>8.853836971500119</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1618062724660215</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.082174851758304</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H9" t="n">
-        <v>10.45153080513941</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I9" t="n">
-        <v>37.25909029080126</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2417915865159</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>174.7475066543223</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L9" t="n">
-        <v>234.9695878784861</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>230.2496507514506</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>269.5332441208022</v>
+        <v>235.9393707926324</v>
       </c>
       <c r="O9" t="n">
-        <v>257.4769262426873</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P9" t="n">
-        <v>206.6479328765484</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.1386705507618</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>67.18976842759015</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S9" t="n">
-        <v>20.1009232333176</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T9" t="n">
-        <v>4.361924073534565</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07119571393146738</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.907259043104819</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H10" t="n">
-        <v>8.066357674150124</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I10" t="n">
-        <v>27.28375376900674</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J10" t="n">
-        <v>64.14321434751069</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K10" t="n">
-        <v>105.4070051898144</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M10" t="n">
-        <v>142.2169789114217</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N10" t="n">
-        <v>138.8353770234857</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O10" t="n">
-        <v>128.2369418381248</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P10" t="n">
-        <v>109.7288573587864</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.97057314580444</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R10" t="n">
-        <v>40.79366570178576</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S10" t="n">
-        <v>15.81105077847216</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T10" t="n">
-        <v>3.876470456902407</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04948685689662654</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H11" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I11" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J11" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K11" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L11" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M11" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N11" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O11" t="n">
-        <v>578.2538401190908</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P11" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q11" t="n">
-        <v>370.6176784928398</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S11" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T11" t="n">
-        <v>15.02359169452749</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H12" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I12" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J12" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K12" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L12" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M12" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N12" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O12" t="n">
-        <v>436.8985133884509</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q12" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R12" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S12" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T12" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H13" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I13" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J13" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K13" t="n">
         <v>178.8593818490428</v>
       </c>
       <c r="L13" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M13" t="n">
         <v>241.3202129282508</v>
       </c>
       <c r="N13" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O13" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P13" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R13" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S13" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T13" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,43 +31995,43 @@
         <v>35.14799735958417</v>
       </c>
       <c r="I14" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J14" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K14" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L14" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M14" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N14" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O14" t="n">
-        <v>578.2538401190909</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P14" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.6176784928398</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S14" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T14" t="n">
         <v>15.0235916945275</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H15" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I15" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J15" t="n">
         <v>173.4885040076064</v>
       </c>
       <c r="K15" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L15" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M15" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N15" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O15" t="n">
-        <v>436.8985133884509</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P15" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q15" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R15" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S15" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T15" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>13.68736114619437</v>
       </c>
       <c r="I16" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J16" t="n">
         <v>108.841112100157</v>
@@ -32168,28 +32168,28 @@
         <v>241.3202129282508</v>
       </c>
       <c r="N16" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O16" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P16" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R16" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S16" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T16" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,37 +32469,37 @@
         <v>35.14799735958417</v>
       </c>
       <c r="I20" t="n">
-        <v>132.3122829933231</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J20" t="n">
-        <v>291.2869367409261</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K20" t="n">
-        <v>436.5636098258716</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L20" t="n">
-        <v>541.5957615840432</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M20" t="n">
-        <v>602.6296390934785</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N20" t="n">
-        <v>612.3808166839015</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O20" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P20" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q20" t="n">
-        <v>370.6176784928399</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R20" t="n">
         <v>215.5855378141321</v>
       </c>
       <c r="S20" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T20" t="n">
         <v>15.0235916945275</v>
@@ -32545,43 +32545,43 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H21" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I21" t="n">
-        <v>63.22291242095121</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J21" t="n">
         <v>173.4885040076064</v>
       </c>
       <c r="K21" t="n">
-        <v>296.5194861913581</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L21" t="n">
-        <v>398.7070419616802</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M21" t="n">
-        <v>465.2723121730383</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N21" t="n">
-        <v>477.5866858152848</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O21" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P21" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q21" t="n">
         <v>234.3999545349508</v>
       </c>
       <c r="R21" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S21" t="n">
-        <v>34.10815721053862</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T21" t="n">
-        <v>7.401510384057851</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U21" t="n">
         <v>0.1208081129062762</v>
@@ -32627,7 +32627,7 @@
         <v>13.68736114619437</v>
       </c>
       <c r="I22" t="n">
-        <v>46.2963094801748</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J22" t="n">
         <v>108.841112100157</v>
@@ -32654,16 +32654,16 @@
         <v>128.9103103451904</v>
       </c>
       <c r="R22" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S22" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T22" t="n">
         <v>6.577770693978882</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08397154077419862</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938029</v>
+        <v>2.231303178280456</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554485</v>
+        <v>40.04263582519184</v>
       </c>
       <c r="M2" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="N2" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="O2" t="n">
-        <v>79.84747424434678</v>
+        <v>64.37906125018392</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381791</v>
+        <v>20.0965434976826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>75.15371678069215</v>
+        <v>64.48821875741203</v>
       </c>
       <c r="M3" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="N3" t="n">
-        <v>92.66494928910245</v>
+        <v>40.91323118501113</v>
       </c>
       <c r="O3" t="n">
-        <v>91.58258828196784</v>
+        <v>76.54447849706852</v>
       </c>
       <c r="P3" t="n">
-        <v>14.84955516042964</v>
+        <v>44.59480084981212</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>14.40769724584666</v>
+        <v>23.38234588573894</v>
       </c>
       <c r="L5" t="n">
-        <v>55.14852937642331</v>
+        <v>66.28237460692787</v>
       </c>
       <c r="M5" t="n">
-        <v>93.35269566689678</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N5" t="n">
-        <v>93.68779966354352</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O5" t="n">
-        <v>80.50740193158404</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P5" t="n">
-        <v>33.86170912690818</v>
+        <v>44.00736672526756</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L6" t="n">
-        <v>37.13411086683578</v>
+        <v>83.80515100391688</v>
       </c>
       <c r="M6" t="n">
-        <v>93.68779966354352</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="N6" t="n">
-        <v>93.68779966354352</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O6" t="n">
-        <v>92.08119530451427</v>
+        <v>46.77903017045187</v>
       </c>
       <c r="P6" t="n">
-        <v>54.37492751276554</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.698987336805999</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>37.18970684501568</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L8" t="n">
-        <v>83.41162680728411</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M8" t="n">
-        <v>124.8008372745938</v>
+        <v>129.5393570429493</v>
       </c>
       <c r="N8" t="n">
-        <v>131.4806578008266</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O8" t="n">
-        <v>110.6834959528058</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P8" t="n">
-        <v>59.61630722541167</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>36.90606767996326</v>
+        <v>39.23762151646886</v>
       </c>
       <c r="L9" t="n">
-        <v>96.41520809861194</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M9" t="n">
-        <v>88.1156168294323</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>138.1915320374689</v>
+        <v>104.597658709299</v>
       </c>
       <c r="O9" t="n">
-        <v>114.8806817982429</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P9" t="n">
-        <v>72.67352546221815</v>
+        <v>75.43070803911962</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M10" t="n">
-        <v>3.291194963816679</v>
+        <v>5.188712983647946</v>
       </c>
       <c r="N10" t="n">
-        <v>11.14983255825251</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K11" t="n">
-        <v>216.4737587808909</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L11" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M11" t="n">
-        <v>372.2834058662056</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N11" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O11" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P11" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.3119886183904</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>46.65087734093964</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K12" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L12" t="n">
-        <v>260.1526621818059</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M12" t="n">
-        <v>323.1382782510198</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N12" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O12" t="n">
-        <v>294.3022689440064</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P12" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M13" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N13" t="n">
-        <v>107.8966131767808</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O13" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P13" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K14" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L14" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M14" t="n">
-        <v>372.2834058662057</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N14" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O14" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P14" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.3119886183904</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K15" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L15" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M15" t="n">
-        <v>323.1382782510199</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N15" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O15" t="n">
-        <v>294.3022689440065</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P15" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M16" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N16" t="n">
-        <v>107.8966131767809</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O16" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P16" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K20" t="n">
         <v>216.473758780891</v>
       </c>
       <c r="L20" t="n">
-        <v>305.829346614056</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M20" t="n">
-        <v>372.2834058662058</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N20" t="n">
-        <v>382.9677530873105</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O20" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P20" t="n">
         <v>262.2932784109607</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>46.6508773409397</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K21" t="n">
-        <v>158.6780472169991</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L21" t="n">
         <v>260.152662181806</v>
       </c>
       <c r="M21" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N21" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O21" t="n">
         <v>294.3022689440065</v>
@@ -36220,7 +36220,7 @@
         <v>216.6751672332333</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.41818044892932</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L22" t="n">
-        <v>93.9937533556355</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M22" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N22" t="n">
         <v>107.8966131767809</v>
       </c>
       <c r="O22" t="n">
-        <v>79.14171420769705</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P22" t="n">
         <v>48.46489236084182</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
